--- a/results/I3_N5_M2_T15_C100_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1575.86794023884</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1040000915527344</v>
+        <v>0.07400012016296387</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4.71642970253766e-12</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.09317581765922</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.196936732601294</v>
+        <v>10.08257625195636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.791701159296143</v>
+        <v>9.074935918213754</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1182.839999994486</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.34</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,17 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -863,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.062426045106148</v>
+        <v>6.958585032589907</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6.293754227046186</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.993125456775882</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.293754227046154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -960,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -974,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -985,10 +996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1052,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>182.477999999548</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.2439999999364</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>135.8060000000088</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>97.66500000000353</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.130999999744</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8">
@@ -1107,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>182.4779999994158</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>135.8060000000406</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>82.47799999941201</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="3">
@@ -1176,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>35.80600000003656</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1234,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1245,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.601999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1256,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1267,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.651999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,23 +1341,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
